--- a/.idea/files/Evaluation/Round2/EvaluationDataset-CEA.xlsx
+++ b/.idea/files/Evaluation/Round2/EvaluationDataset-CEA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANTHONY\Desktop\Evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANTHONY\IdeaProjects\STI_Thesis\.idea\files\Evaluation\Round2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC7494E-8F45-4D8F-99F1-5803865A61FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F92218-6D5B-4B54-965D-48A08AF3A640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="2970" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -40,816 +40,408 @@
     <t>ResultatDataset1 "1" "1" URI: http://dbpedia.org/resource/Benjamin_Akande</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "1" URI: 110</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "1" URI: 67</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "2" URI: http://dbpedia.org/resource/West_Virginia_University</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "2" URI: http://dbpedia.org/resource/E._Gordon_Gee</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "2" URI: 7566</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "2" URI: 1870</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "3" URI: http://dbpedia.org/resource/Wells_College</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "3" URI: http://dbpedia.org/resource/Jonathan_Gibralter</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "3" URI: 120</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "3" URI: 69</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "4" URI: http://dbpedia.org/resource/Weizmann_Institute_of_Science</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "4" URI: http://dbpedia.org/resource/Daniel_Zajfman</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "4" URI: 400</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "4" URI: 952</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "5" URI: http://dbpedia.org/resource/Virginia_Commonwealth_University</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "5" URI: http://dbpedia.org/resource/Michael_Rao</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "5" URI: 11252</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "5" URI: 3279</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "6" URI: http://dbpedia.org/resource/Villanova_University</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "6" URI: http://dbpedia.org/resource/Peter_M._Donohue</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "6" URI: 2000</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "6" URI: 545</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "7" URI: http://dbpedia.org/resource/Utah_State_University</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "7" URI: http://dbpedia.org/resource/Stan_L._Albrecht</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "7" URI: 1569</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "7" URI: 788</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "8" URI: http://dbpedia.org/resource/Urmia_University</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "8" URI: http://dbpedia.org/resource/Rahim_Hobbenaghi</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "8" URI: 800</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "8" URI: 481</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "9" URI: http://dbpedia.org/resource/University_of_Washington</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "9" URI: http://dbpedia.org/resource/Ana_Mari_Cauce</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "9" URI: 16174</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "9" URI: 5803</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "10" URI: http://dbpedia.org/resource/University_of_Vienna</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "10" URI: http://dbpedia.org/resource/Heinz_Engl</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "10" URI: 3106</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "10" URI: 6765</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "11" URI: http://dbpedia.org/resource/University_of_Victoria</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "11" URI: http://dbpedia.org/resource/Queen's_Counsel</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "11" URI: 4606</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "11" URI: 886</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "12" URI: http://dbpedia.org/resource/University_of_Utah</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "12" URI: http://dbpedia.org/resource/Doctor_of_Philosophy</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "12" URI: 14362</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "12" URI: 2687</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "13" URI: http://dbpedia.org/resource/University_of_Toronto</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "13" URI: http://dbpedia.org/resource/Meric_Gertler</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "13" URI: 4590</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "13" URI: 2547</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "14" URI: http://dbpedia.org/resource/University_of_Texas_at_San_Antonio</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "14" URI: http://dbpedia.org/resource/Ricardo_Romo</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "14" URI: 4000</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "14" URI: 1319</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "15" URI: http://dbpedia.org/resource/University_of_Texas_at_El_Paso</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "15" URI: http://dbpedia.org/resource/Diana_Natalicio</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "15" URI: 1511</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "15" URI: 1309</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "16" URI: http://dbpedia.org/resource/University_of_Texas_at_Austin</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "16" URI: http://dbpedia.org/resource/Gregory_L._Fenves</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "16" URI: 21000</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "16" URI: 3090</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "17" URI: http://dbpedia.org/resource/University_of_Texas_Rio_Grande_Valley</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "17" URI: http://dbpedia.org/resource/Guy_Bailey</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "17" URI: 1338</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "17" URI: 1239</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "18" URI: http://dbpedia.org/resource/University_of_Tennessee_system</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "18" URI: http://dbpedia.org/resource/Joseph_A._DiPietro</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "18" URI: 6950</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "18" URI: 2250</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "19" URI: http://dbpedia.org/resource/University_of_Southern_California</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "19" URI: http://dbpedia.org/resource/C._L._Max_Nikias</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "19" URI: 13216</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "19" URI: 3945</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "20" URI: http://dbpedia.org/resource/University_of_Sharjah</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "20" URI: http://dbpedia.org/resource/Sultan_bin_Muhammad_Al-Qasimi</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "20" URI: 851</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "20" URI: 466</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "21" URI: http://dbpedia.org/resource/University_of_Puerto_Rico,_Río_Piedras_Campus</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "21" URI: http://dbpedia.org/resource/Uroyoán_Walker</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "21" URI: 2406</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "21" URI: 1374</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "22" URI: http://dbpedia.org/resource/University_of_Puerto_Rico</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "22" URI: http://dbpedia.org/resource/Occupancy</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "22" URI: 14177</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "22" URI: 5300</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "23" URI: http://dbpedia.org/resource/University_of_Phoenix</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "23" URI: http://dbpedia.org/resource/Timothy_Slottow</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "23" URI: 12000</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "23" URI: 20000</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "24" URI: http://dbpedia.org/resource/University_of_North_Dakota</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "24" URI: http://dbpedia.org/resource/Mark_Kennedy_(politician)</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "24" URI: 2051</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "24" URI: 823</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "25" URI: http://dbpedia.org/resource/University_of_North_Carolina</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "25" URI: http://dbpedia.org/resource/Margaret_Spellings</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "25" URI: 30664</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "25" URI: 13564</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "26" URI: http://dbpedia.org/resource/University_of_New_Haven</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "26" URI: http://dbpedia.org/resource/Steven_H._Kaplan</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "26" URI: 500</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "26" URI: 522</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "27" URI: http://dbpedia.org/resource/University_of_New_Hampshire_at_Manchester</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "27" URI: http://dbpedia.org/resource/Mark_Huddleston</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "27" URI: 67</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "27" URI: 64</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "28" URI: http://dbpedia.org/resource/University_of_Missouri_System</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "28" URI: http://dbpedia.org/resource/Michael_Middleton_(academic)</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "28" URI: 17786</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "28" URI: 5937</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "29" URI: http://dbpedia.org/resource/University_of_Michigan–Flint</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "29" URI: http://dbpedia.org/resource/Mark_Schlissel</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "29" URI: 510</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "29" URI: 524</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "30" URI: http://dbpedia.org/resource/University_of_Michigan</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "30" URI: http://dbpedia.org/resource/Mark_Schlissel</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "30" URI: 18986</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "30" URI: 6771</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "31" URI: http://dbpedia.org/resource/University_of_Miami</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "31" URI: http://dbpedia.org/resource/Julio_Frenk</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "31" URI: 10985</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "31" URI: 3030</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "32" URI: http://dbpedia.org/resource/University_of_Maryland,_College_Park</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "32" URI: http://dbpedia.org/resource/Wallace_Loh</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "32" URI: 5315</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "32" URI: 4509</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "33" URI: http://dbpedia.org/resource/University_of_Maryland,_Baltimore_County</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "33" URI: http://dbpedia.org/resource/Freeman_A._Hrabowski_III</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "33" URI: 1288</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "33" URI: 298</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "34" URI: http://dbpedia.org/resource/University_of_Göttingen</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "34" URI: http://dbpedia.org/resource/Ulrike_Beisiegel</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "34" URI: 7683</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "34" URI: 4238</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "35" URI: http://dbpedia.org/resource/University_of_Delaware</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "35" URI: http://dbpedia.org/resource/Dennis_Assanis</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "35" URI: 4004</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "35" URI: 1172</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "36" URI: http://dbpedia.org/resource/University_of_Chicago</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "36" URI: http://dbpedia.org/resource/Robert_Zimmer</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "36" URI: 14772</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "36" URI: 2274</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "37" URI: http://dbpedia.org/resource/University_of_California</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "37" URI: http://dbpedia.org/resource/Janet_Napolitano</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "37" URI: 135900</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "37" URI: 19700</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "38" URI: http://dbpedia.org/resource/University_of_British_Columbia</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "38" URI: http://dbpedia.org/resource/Santa_J._Ono</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "38" URI: 606</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "38" URI: 470</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "39" URI: http://dbpedia.org/resource/University_of_Alberta</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "39" URI: http://dbpedia.org/resource/David_H._Turpin</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "39" URI: 2527</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "39" URI: 2764</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "40" URI: http://dbpedia.org/resource/Tsinghua_University</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "40" URI: http://dbpedia.org/resource/Qiu_Yong</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "40" URI: 4101</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "40" URI: 3133</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "41" URI: http://dbpedia.org/resource/The_Evergreen_State_College</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "41" URI: http://dbpedia.org/resource/George_Sumner_Bridges</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "41" URI: 528</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "41" URI: 240</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "42" URI: http://dbpedia.org/resource/Stevenson_University</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "42" URI: http://dbpedia.org/resource/Kevin_J._Manning</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "42" URI: 580</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "42" URI: 523</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "43" URI: http://dbpedia.org/resource/Stanford_University</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "43" URI: http://dbpedia.org/resource/Marc_Tessier-Lavigne</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "43" URI: 11128</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "43" URI: 2118</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "44" URI: http://dbpedia.org/resource/St._Petersburg_College</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "44" URI: http://dbpedia.org/resource/William_D._Law</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "44" URI: 1707</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "44" URI: 2304</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "45" URI: http://dbpedia.org/resource/St._Ambrose_University</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "45" URI: http://dbpedia.org/resource/Nun</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "45" URI: 314</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "45" URI: 350</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "46" URI: http://dbpedia.org/resource/Southwestern_University</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "46" URI: http://dbpedia.org/resource/Edward_Burger</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "46" URI: 317</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "46" URI: 386</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "47" URI: http://dbpedia.org/resource/Southern_Illinois_University_Edwardsville</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "47" URI: http://dbpedia.org/resource/Randy_Dunn</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "47" URI: 1385</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "47" URI: 1005</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "48" URI: http://dbpedia.org/resource/Sogang_University</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "48" URI: http://dbpedia.org/resource/Doctor_of_Philosophy</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "48" URI: 234</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "48" URI: 432</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "49" URI: http://dbpedia.org/resource/Siena_Heights_University</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "49" URI: http://dbpedia.org/resource/Dominican_Order</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "49" URI: 70</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "49" URI: 80</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "50" URI: http://dbpedia.org/resource/Shandong_University</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "50" URI: http://dbpedia.org/resource/Zhang_Rong_(physicist)</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "50" URI: 7898</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "50" URI: 3700</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "51" URI: http://dbpedia.org/resource/School_of_Jazz_(The_New_School)</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "51" URI: http://dbpedia.org/resource/David_E._Van_Zandt</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "51" URI: 13</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "51" URI: 67</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "52" URI: http://dbpedia.org/resource/Savannah_College_of_Art_and_Design</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "52" URI: http://dbpedia.org/resource/Paula_Wallace</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "52" URI: 1186</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "52" URI: 720</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "53" URI: http://dbpedia.org/resource/Santa_Clara_University</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "53" URI: http://dbpedia.org/resource/Michael_Engh</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "53" URI: 855</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "53" URI: 516</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "54" URI: http://dbpedia.org/resource/San_Pedro_College</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "54" URI: http://dbpedia.org/resource/Dominican_Order</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "54" URI: 350</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "54" URI: 600</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "55" URI: http://dbpedia.org/resource/San_Francisco_State_University</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "55" URI: http://dbpedia.org/resource/Leslie_E._Wong</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "55" URI: 2010</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "55" URI: 1620</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "56" URI: http://dbpedia.org/resource/San_Diego_Miramar_College</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "56" URI: http://dbpedia.org/resource/Doctor_of_Education</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "56" URI: 285</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "56" URI: 446</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "57" URI: http://dbpedia.org/resource/San_Diego_Continuing_Education</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "57" URI: http://dbpedia.org/resource/Doctor_of_Philosophy</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "57" URI: 245</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "57" URI: 446</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "58" URI: http://dbpedia.org/resource/Saint_Louis_University</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "58" URI: http://dbpedia.org/resource/Fred_Pestello</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "58" URI: 6000</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "58" URI: 2200</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "59" URI: http://dbpedia.org/resource/Roger_Williams_University</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "59" URI: http://dbpedia.org/resource/Donald_J._Farish</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "59" URI: 165</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "59" URI: 489</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "60" URI: http://dbpedia.org/resource/Rochester_Institute_of_Technology</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "60" URI: http://dbpedia.org/resource/William_W._Destler</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "60" URI: 2310</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "60" URI: 1544</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "61" URI: http://dbpedia.org/resource/Richland_Community_College</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "61" URI: http://dbpedia.org/resource/Doctor_of_Philosophy</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "61" URI: 238</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "61" URI: 99</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "62" URI: http://dbpedia.org/resource/Rice_University</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "62" URI: http://dbpedia.org/resource/David_Leebron</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "62" URI: 2152</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "62" URI: 665</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "63" URI: http://dbpedia.org/resource/Princeton_University</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "63" URI: http://dbpedia.org/resource/Christopher_L._Eisgruber</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "63" URI: 1103</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "63" URI: 1172</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "64" URI: http://dbpedia.org/resource/Palo_Alto_University</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "64" URI: http://dbpedia.org/resource/Doctor_of_Philosophy</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "64" URI: 48</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "64" URI: 81</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "65" URI: http://dbpedia.org/resource/Pace_University</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "65" URI: http://dbpedia.org/resource/Stephen_J._Friedman</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "65" URI: 1527</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "65" URI: 1238</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "66" URI: http://dbpedia.org/resource/Osaka_University</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "66" URI: http://dbpedia.org/resource/Shojiro_Nishio</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "66" URI: 8675</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "66" URI: 2953</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "67" URI: http://dbpedia.org/resource/Orkhon_University</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "67" URI: http://dbpedia.org/resource/Dawn_Dekle</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "67" URI: 30</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "67" URI: 60</t>
-  </si>
-  <si>
     <t>ResultatDataset1 "0" "68" URI: http://dbpedia.org/resource/Ohio_State_University</t>
   </si>
   <si>
     <t>ResultatDataset1 "1" "68" URI: http://dbpedia.org/resource/Michael_V._Drake</t>
   </si>
   <si>
-    <t>ResultatDataset1 (2) "2" "68" URI: 21987</t>
-  </si>
-  <si>
-    <t>ResultatDataset1 (2) "3" "68" URI: 6254</t>
-  </si>
-  <si>
     <t>Cel Annoted</t>
   </si>
   <si>
@@ -1253,6 +845,414 @@
   </si>
   <si>
     <t>Value Target Annoted</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "1" URI: 110</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "1" URI: 67</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "2" URI: 7566</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "2" URI: 1870</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "3" URI: 120</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "3" URI: 69</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "4" URI: 400</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "4" URI: 952</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "5" URI: 11252</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "5" URI: 3279</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "6" URI: 2000</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "6" URI: 545</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "7" URI: 1569</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "7" URI: 788</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "8" URI: 800</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "8" URI: 481</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "9" URI: 16174</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "9" URI: 5803</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "10" URI: 3106</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "10" URI: 6765</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "11" URI: 4606</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "11" URI: 886</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "12" URI: 14362</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "12" URI: 2687</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "13" URI: 4590</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "13" URI: 2547</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "14" URI: 4000</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "14" URI: 1319</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "15" URI: 1511</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "15" URI: 1309</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "16" URI: 21000</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "16" URI: 3090</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "17" URI: 1338</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "17" URI: 1239</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "18" URI: 6950</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "18" URI: 2250</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "19" URI: 13216</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "19" URI: 3945</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "20" URI: 851</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "20" URI: 466</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "21" URI: 2406</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "21" URI: 1374</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "22" URI: 14177</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "22" URI: 5300</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "23" URI: 12000</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "23" URI: 20000</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "24" URI: 2051</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "24" URI: 823</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "25" URI: 30664</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "25" URI: 13564</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "26" URI: 500</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "26" URI: 522</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "27" URI: 67</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "27" URI: 64</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "28" URI: 17786</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "28" URI: 5937</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "29" URI: 510</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "29" URI: 524</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "30" URI: 18986</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "30" URI: 6771</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "31" URI: 10985</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "31" URI: 3030</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "32" URI: 5315</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "32" URI: 4509</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "33" URI: 1288</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "33" URI: 298</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "34" URI: 7683</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "34" URI: 4238</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "35" URI: 4004</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "35" URI: 1172</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "36" URI: 14772</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "36" URI: 2274</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "37" URI: 135900</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "37" URI: 19700</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "38" URI: 606</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "38" URI: 470</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "39" URI: 2527</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "39" URI: 2764</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "40" URI: 4101</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "40" URI: 3133</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "41" URI: 528</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "41" URI: 240</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "42" URI: 580</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "42" URI: 523</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "43" URI: 11128</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "43" URI: 2118</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "44" URI: 1707</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "44" URI: 2304</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "45" URI: 314</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "45" URI: 350</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "46" URI: 317</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "46" URI: 386</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "47" URI: 1385</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "47" URI: 1005</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "48" URI: 234</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "48" URI: 432</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "49" URI: 70</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "49" URI: 80</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "50" URI: 7898</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "50" URI: 3700</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "51" URI: 13</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "51" URI: 67</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "52" URI: 1186</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "52" URI: 720</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "53" URI: 855</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "53" URI: 516</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "54" URI: 350</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "54" URI: 600</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "55" URI: 2010</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "55" URI: 1620</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "56" URI: 285</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "56" URI: 446</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "57" URI: 245</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "57" URI: 446</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "58" URI: 6000</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "58" URI: 2200</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "59" URI: 165</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "59" URI: 489</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "60" URI: 2310</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "60" URI: 1544</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "61" URI: 238</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "61" URI: 99</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "62" URI: 2152</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "62" URI: 665</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "63" URI: 1103</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "63" URI: 1172</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "64" URI: 48</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "64" URI: 81</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "65" URI: 1527</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "65" URI: 1238</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "66" URI: 8675</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "66" URI: 2953</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "67" URI: 30</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "67" URI: 60</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "2" "68" URI: 21987</t>
+  </si>
+  <si>
+    <t>ResultatDataset1 "3" "68" URI: 6254</t>
   </si>
 </sst>
 </file>
@@ -1617,7 +1617,7 @@
   <dimension ref="A1:E278"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B279" sqref="B279"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1631,24 +1631,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>402</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>403</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s">
-        <v>272</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
-        <v>273</v>
+        <v>137</v>
       </c>
       <c r="D2" t="s">
-        <v>274</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
-        <v>406</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1662,7 +1662,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>275</v>
+        <v>139</v>
       </c>
       <c r="E3">
         <f>IF(D3 = "nan",0,1)</f>
@@ -1680,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>276</v>
+        <v>140</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E67" si="0">IF(D4 = "nan",0,1)</f>
@@ -1689,7 +1689,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>271</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>272</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1734,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>278</v>
+        <v>142</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1752,7 +1752,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>279</v>
+        <v>143</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
@@ -1761,7 +1761,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>273</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
@@ -1779,7 +1779,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>274</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>280</v>
+        <v>144</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>281</v>
+        <v>145</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>275</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
@@ -1851,7 +1851,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>276</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1878,7 +1878,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>282</v>
+        <v>146</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1896,7 +1896,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>283</v>
+        <v>147</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
@@ -1905,7 +1905,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>277</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1914,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>278</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
@@ -1941,7 +1941,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1950,7 +1950,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>284</v>
+        <v>148</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1968,7 +1968,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>285</v>
+        <v>149</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>279</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
@@ -1995,7 +1995,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>280</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2022,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>286</v>
+        <v>150</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2040,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>287</v>
+        <v>151</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>281</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>282</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2094,7 +2094,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>288</v>
+        <v>152</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2112,7 +2112,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>289</v>
+        <v>153</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>283</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2130,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
@@ -2139,7 +2139,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>284</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2148,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2166,7 +2166,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>290</v>
+        <v>154</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2184,7 +2184,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>291</v>
+        <v>155</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>285</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
@@ -2211,7 +2211,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>286</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
@@ -2229,7 +2229,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2238,7 +2238,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>292</v>
+        <v>156</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -2256,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>293</v>
+        <v>157</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
@@ -2265,7 +2265,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>287</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>288</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
@@ -2301,7 +2301,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>294</v>
+        <v>158</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -2328,7 +2328,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>295</v>
+        <v>159</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>289</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>290</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2364,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
@@ -2373,7 +2373,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>296</v>
+        <v>160</v>
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -2400,7 +2400,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>297</v>
+        <v>161</v>
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
@@ -2409,7 +2409,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>291</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
@@ -2427,7 +2427,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>292</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
@@ -2445,7 +2445,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -2454,7 +2454,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>298</v>
+        <v>162</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -2472,7 +2472,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>299</v>
+        <v>163</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
@@ -2481,7 +2481,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>293</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
@@ -2499,7 +2499,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>294</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
@@ -2517,7 +2517,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -2526,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>300</v>
+        <v>164</v>
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -2544,7 +2544,7 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>301</v>
+        <v>165</v>
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>295</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2562,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
@@ -2571,7 +2571,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>296</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -2598,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>302</v>
+        <v>166</v>
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -2616,7 +2616,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>303</v>
+        <v>167</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>297</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>298</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
@@ -2661,7 +2661,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -2670,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>304</v>
+        <v>168</v>
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -2688,7 +2688,7 @@
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>305</v>
+        <v>169</v>
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
@@ -2697,7 +2697,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>299</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E61">
         <f t="shared" si="0"/>
@@ -2715,7 +2715,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>300</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E62">
         <f t="shared" si="0"/>
@@ -2733,7 +2733,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -2742,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>306</v>
+        <v>170</v>
       </c>
       <c r="E63">
         <f t="shared" si="0"/>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -2760,7 +2760,7 @@
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>307</v>
+        <v>171</v>
       </c>
       <c r="E64">
         <f t="shared" si="0"/>
@@ -2769,7 +2769,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>301</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E65">
         <f t="shared" si="0"/>
@@ -2787,7 +2787,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>302</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -2796,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E66">
         <f t="shared" si="0"/>
@@ -2805,7 +2805,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>308</v>
+        <v>172</v>
       </c>
       <c r="E67">
         <f t="shared" si="0"/>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -2832,7 +2832,7 @@
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>309</v>
+        <v>173</v>
       </c>
       <c r="E68">
         <f t="shared" ref="E68:E131" si="1">IF(D68 = "nan",0,1)</f>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>303</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -2850,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E69">
         <f t="shared" si="1"/>
@@ -2859,7 +2859,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>304</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2868,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E70">
         <f t="shared" si="1"/>
@@ -2877,7 +2877,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -2886,7 +2886,7 @@
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>310</v>
+        <v>174</v>
       </c>
       <c r="E71">
         <f t="shared" si="1"/>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -2904,7 +2904,7 @@
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>311</v>
+        <v>175</v>
       </c>
       <c r="E72">
         <f t="shared" si="1"/>
@@ -2913,7 +2913,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>305</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E73">
         <f t="shared" si="1"/>
@@ -2931,7 +2931,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>306</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -2940,7 +2940,7 @@
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E74">
         <f t="shared" si="1"/>
@@ -2949,7 +2949,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -2958,7 +2958,7 @@
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>312</v>
+        <v>176</v>
       </c>
       <c r="E75">
         <f t="shared" si="1"/>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -2976,7 +2976,7 @@
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>313</v>
+        <v>177</v>
       </c>
       <c r="E76">
         <f t="shared" si="1"/>
@@ -2985,7 +2985,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>74</v>
+        <v>307</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E77">
         <f t="shared" si="1"/>
@@ -3003,7 +3003,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>75</v>
+        <v>308</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E78">
         <f t="shared" si="1"/>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -3030,7 +3030,7 @@
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>314</v>
+        <v>178</v>
       </c>
       <c r="E79">
         <f t="shared" si="1"/>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -3048,7 +3048,7 @@
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>315</v>
+        <v>179</v>
       </c>
       <c r="E80">
         <f t="shared" si="1"/>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>78</v>
+        <v>309</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E81">
         <f t="shared" si="1"/>
@@ -3075,7 +3075,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -3084,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E82">
         <f t="shared" si="1"/>
@@ -3093,7 +3093,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E83">
         <f t="shared" si="1"/>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E84">
         <f t="shared" si="1"/>
@@ -3129,7 +3129,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>82</v>
+        <v>311</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E85">
         <f t="shared" si="1"/>
@@ -3147,7 +3147,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>83</v>
+        <v>312</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="D86" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E86">
         <f t="shared" si="1"/>
@@ -3165,7 +3165,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -3174,7 +3174,7 @@
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>316</v>
+        <v>180</v>
       </c>
       <c r="E87">
         <f t="shared" si="1"/>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -3192,7 +3192,7 @@
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>317</v>
+        <v>181</v>
       </c>
       <c r="E88">
         <f t="shared" si="1"/>
@@ -3201,7 +3201,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>86</v>
+        <v>313</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E89">
         <f t="shared" si="1"/>
@@ -3219,7 +3219,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>87</v>
+        <v>314</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="D90" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E90">
         <f t="shared" si="1"/>
@@ -3237,7 +3237,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -3246,7 +3246,7 @@
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>318</v>
+        <v>182</v>
       </c>
       <c r="E91">
         <f t="shared" si="1"/>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -3264,7 +3264,7 @@
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>319</v>
+        <v>183</v>
       </c>
       <c r="E92">
         <f t="shared" si="1"/>
@@ -3273,7 +3273,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>90</v>
+        <v>315</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -3282,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="D93" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E93">
         <f t="shared" si="1"/>
@@ -3291,7 +3291,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>91</v>
+        <v>316</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -3300,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="D94" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E94">
         <f t="shared" si="1"/>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>320</v>
+        <v>184</v>
       </c>
       <c r="E95">
         <f t="shared" si="1"/>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -3336,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>321</v>
+        <v>185</v>
       </c>
       <c r="E96">
         <f t="shared" si="1"/>
@@ -3345,7 +3345,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>94</v>
+        <v>317</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="D97" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E97">
         <f t="shared" si="1"/>
@@ -3363,7 +3363,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>95</v>
+        <v>318</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -3372,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="D98" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E98">
         <f t="shared" si="1"/>
@@ -3381,7 +3381,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -3390,7 +3390,7 @@
         <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>322</v>
+        <v>186</v>
       </c>
       <c r="E99">
         <f t="shared" si="1"/>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -3408,7 +3408,7 @@
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>323</v>
+        <v>187</v>
       </c>
       <c r="E100">
         <f t="shared" si="1"/>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>98</v>
+        <v>319</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="D101" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E101">
         <f t="shared" si="1"/>
@@ -3435,7 +3435,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>99</v>
+        <v>320</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="D102" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E102">
         <f t="shared" si="1"/>
@@ -3453,7 +3453,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -3462,7 +3462,7 @@
         <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>324</v>
+        <v>188</v>
       </c>
       <c r="E103">
         <f t="shared" si="1"/>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -3480,7 +3480,7 @@
         <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>325</v>
+        <v>189</v>
       </c>
       <c r="E104">
         <f t="shared" si="1"/>
@@ -3489,7 +3489,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>102</v>
+        <v>321</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -3498,7 +3498,7 @@
         <v>0</v>
       </c>
       <c r="D105" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E105">
         <f t="shared" si="1"/>
@@ -3507,7 +3507,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>103</v>
+        <v>322</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -3516,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="D106" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E106">
         <f t="shared" si="1"/>
@@ -3525,7 +3525,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -3534,7 +3534,7 @@
         <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>326</v>
+        <v>190</v>
       </c>
       <c r="E107">
         <f t="shared" si="1"/>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -3552,7 +3552,7 @@
         <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>327</v>
+        <v>191</v>
       </c>
       <c r="E108">
         <f t="shared" si="1"/>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>106</v>
+        <v>323</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="D109" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E109">
         <f t="shared" si="1"/>
@@ -3579,7 +3579,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>107</v>
+        <v>324</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -3588,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="D110" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E110">
         <f t="shared" si="1"/>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -3606,7 +3606,7 @@
         <v>1</v>
       </c>
       <c r="D111" t="s">
-        <v>328</v>
+        <v>192</v>
       </c>
       <c r="E111">
         <f t="shared" si="1"/>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -3624,7 +3624,7 @@
         <v>1</v>
       </c>
       <c r="D112" t="s">
-        <v>329</v>
+        <v>193</v>
       </c>
       <c r="E112">
         <f t="shared" si="1"/>
@@ -3633,7 +3633,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>110</v>
+        <v>325</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="D113" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E113">
         <f t="shared" si="1"/>
@@ -3651,7 +3651,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>111</v>
+        <v>326</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="D114" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E114">
         <f t="shared" si="1"/>
@@ -3669,7 +3669,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="D115" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E115">
         <f t="shared" si="1"/>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -3696,7 +3696,7 @@
         <v>1</v>
       </c>
       <c r="D116" t="s">
-        <v>330</v>
+        <v>194</v>
       </c>
       <c r="E116">
         <f t="shared" si="1"/>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>114</v>
+        <v>327</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="D117" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E117">
         <f t="shared" si="1"/>
@@ -3723,7 +3723,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>115</v>
+        <v>328</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -3732,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="D118" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E118">
         <f t="shared" si="1"/>
@@ -3741,7 +3741,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -3750,7 +3750,7 @@
         <v>1</v>
       </c>
       <c r="D119" t="s">
-        <v>331</v>
+        <v>195</v>
       </c>
       <c r="E119">
         <f t="shared" si="1"/>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -3768,7 +3768,7 @@
         <v>1</v>
       </c>
       <c r="D120" t="s">
-        <v>330</v>
+        <v>194</v>
       </c>
       <c r="E120">
         <f t="shared" si="1"/>
@@ -3777,7 +3777,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>118</v>
+        <v>329</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="D121" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E121">
         <f t="shared" si="1"/>
@@ -3795,7 +3795,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>119</v>
+        <v>330</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -3804,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="D122" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E122">
         <f t="shared" si="1"/>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="D123" t="s">
-        <v>332</v>
+        <v>196</v>
       </c>
       <c r="E123">
         <f t="shared" si="1"/>
@@ -3831,7 +3831,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -3840,7 +3840,7 @@
         <v>1</v>
       </c>
       <c r="D124" t="s">
-        <v>333</v>
+        <v>197</v>
       </c>
       <c r="E124">
         <f t="shared" si="1"/>
@@ -3849,7 +3849,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>122</v>
+        <v>331</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -3858,7 +3858,7 @@
         <v>0</v>
       </c>
       <c r="D125" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E125">
         <f t="shared" si="1"/>
@@ -3867,7 +3867,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>123</v>
+        <v>332</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -3876,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="D126" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E126">
         <f t="shared" si="1"/>
@@ -3885,7 +3885,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -3894,7 +3894,7 @@
         <v>1</v>
       </c>
       <c r="D127" t="s">
-        <v>334</v>
+        <v>198</v>
       </c>
       <c r="E127">
         <f t="shared" si="1"/>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -3912,7 +3912,7 @@
         <v>1</v>
       </c>
       <c r="D128" t="s">
-        <v>335</v>
+        <v>199</v>
       </c>
       <c r="E128">
         <f t="shared" si="1"/>
@@ -3921,7 +3921,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>126</v>
+        <v>333</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -3930,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="D129" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E129">
         <f t="shared" si="1"/>
@@ -3939,7 +3939,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>127</v>
+        <v>334</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="D130" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E130">
         <f t="shared" si="1"/>
@@ -3957,7 +3957,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -3966,7 +3966,7 @@
         <v>1</v>
       </c>
       <c r="D131" t="s">
-        <v>336</v>
+        <v>200</v>
       </c>
       <c r="E131">
         <f t="shared" si="1"/>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -3984,7 +3984,7 @@
         <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>337</v>
+        <v>201</v>
       </c>
       <c r="E132">
         <f t="shared" ref="E132:E195" si="2">IF(D132 = "nan",0,1)</f>
@@ -3993,7 +3993,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>130</v>
+        <v>335</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -4002,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="D133" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E133">
         <f t="shared" si="2"/>
@@ -4011,7 +4011,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>131</v>
+        <v>336</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -4020,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="D134" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E134">
         <f t="shared" si="2"/>
@@ -4029,7 +4029,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -4038,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="D135" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E135">
         <f t="shared" si="2"/>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -4056,7 +4056,7 @@
         <v>1</v>
       </c>
       <c r="D136" t="s">
-        <v>338</v>
+        <v>202</v>
       </c>
       <c r="E136">
         <f t="shared" si="2"/>
@@ -4065,7 +4065,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>134</v>
+        <v>337</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="D137" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E137">
         <f t="shared" si="2"/>
@@ -4083,7 +4083,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>135</v>
+        <v>338</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="D138" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E138">
         <f t="shared" si="2"/>
@@ -4101,7 +4101,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -4110,7 +4110,7 @@
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>339</v>
+        <v>203</v>
       </c>
       <c r="E139">
         <f t="shared" si="2"/>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>137</v>
+        <v>69</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -4128,7 +4128,7 @@
         <v>1</v>
       </c>
       <c r="D140" t="s">
-        <v>340</v>
+        <v>204</v>
       </c>
       <c r="E140">
         <f t="shared" si="2"/>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>138</v>
+        <v>339</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="D141" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E141">
         <f t="shared" si="2"/>
@@ -4155,7 +4155,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>139</v>
+        <v>340</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -4164,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="D142" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E142">
         <f t="shared" si="2"/>
@@ -4173,7 +4173,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -4182,7 +4182,7 @@
         <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>341</v>
+        <v>205</v>
       </c>
       <c r="E143">
         <f t="shared" si="2"/>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>141</v>
+        <v>71</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -4200,7 +4200,7 @@
         <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>342</v>
+        <v>206</v>
       </c>
       <c r="E144">
         <f t="shared" si="2"/>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>142</v>
+        <v>341</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -4218,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="D145" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E145">
         <f t="shared" si="2"/>
@@ -4227,7 +4227,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>143</v>
+        <v>342</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="D146" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E146">
         <f t="shared" si="2"/>
@@ -4245,7 +4245,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -4254,7 +4254,7 @@
         <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>343</v>
+        <v>207</v>
       </c>
       <c r="E147">
         <f t="shared" si="2"/>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -4272,7 +4272,7 @@
         <v>1</v>
       </c>
       <c r="D148" t="s">
-        <v>344</v>
+        <v>208</v>
       </c>
       <c r="E148">
         <f t="shared" si="2"/>
@@ -4281,7 +4281,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>146</v>
+        <v>343</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -4290,7 +4290,7 @@
         <v>0</v>
       </c>
       <c r="D149" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E149">
         <f t="shared" si="2"/>
@@ -4299,7 +4299,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>147</v>
+        <v>344</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -4308,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="D150" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E150">
         <f t="shared" si="2"/>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="D151" t="s">
-        <v>345</v>
+        <v>209</v>
       </c>
       <c r="E151">
         <f t="shared" si="2"/>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -4344,7 +4344,7 @@
         <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>346</v>
+        <v>210</v>
       </c>
       <c r="E152">
         <f t="shared" si="2"/>
@@ -4353,7 +4353,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>150</v>
+        <v>345</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -4362,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="D153" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E153">
         <f t="shared" si="2"/>
@@ -4371,7 +4371,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>151</v>
+        <v>346</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="D154" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E154">
         <f t="shared" si="2"/>
@@ -4389,7 +4389,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -4398,7 +4398,7 @@
         <v>1</v>
       </c>
       <c r="D155" t="s">
-        <v>347</v>
+        <v>211</v>
       </c>
       <c r="E155">
         <f t="shared" si="2"/>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -4416,7 +4416,7 @@
         <v>1</v>
       </c>
       <c r="D156" t="s">
-        <v>348</v>
+        <v>212</v>
       </c>
       <c r="E156">
         <f t="shared" si="2"/>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>154</v>
+        <v>347</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -4434,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="D157" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E157">
         <f t="shared" si="2"/>
@@ -4443,7 +4443,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>155</v>
+        <v>348</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="D158" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E158">
         <f t="shared" si="2"/>
@@ -4461,7 +4461,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -4470,7 +4470,7 @@
         <v>1</v>
       </c>
       <c r="D159" t="s">
-        <v>349</v>
+        <v>213</v>
       </c>
       <c r="E159">
         <f t="shared" si="2"/>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -4488,7 +4488,7 @@
         <v>1</v>
       </c>
       <c r="D160" t="s">
-        <v>350</v>
+        <v>214</v>
       </c>
       <c r="E160">
         <f t="shared" si="2"/>
@@ -4497,7 +4497,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>158</v>
+        <v>349</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="D161" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E161">
         <f t="shared" si="2"/>
@@ -4515,7 +4515,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>159</v>
+        <v>350</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -4524,7 +4524,7 @@
         <v>0</v>
       </c>
       <c r="D162" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E162">
         <f t="shared" si="2"/>
@@ -4533,7 +4533,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -4542,7 +4542,7 @@
         <v>1</v>
       </c>
       <c r="D163" t="s">
-        <v>351</v>
+        <v>215</v>
       </c>
       <c r="E163">
         <f t="shared" si="2"/>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -4560,7 +4560,7 @@
         <v>1</v>
       </c>
       <c r="D164" t="s">
-        <v>352</v>
+        <v>216</v>
       </c>
       <c r="E164">
         <f t="shared" si="2"/>
@@ -4569,7 +4569,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>162</v>
+        <v>351</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -4578,7 +4578,7 @@
         <v>0</v>
       </c>
       <c r="D165" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E165">
         <f t="shared" si="2"/>
@@ -4587,7 +4587,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>163</v>
+        <v>352</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -4596,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="D166" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E166">
         <f t="shared" si="2"/>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -4614,7 +4614,7 @@
         <v>1</v>
       </c>
       <c r="D167" t="s">
-        <v>353</v>
+        <v>217</v>
       </c>
       <c r="E167">
         <f t="shared" si="2"/>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -4632,7 +4632,7 @@
         <v>1</v>
       </c>
       <c r="D168" t="s">
-        <v>354</v>
+        <v>218</v>
       </c>
       <c r="E168">
         <f t="shared" si="2"/>
@@ -4641,7 +4641,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="D169" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E169">
         <f t="shared" si="2"/>
@@ -4659,7 +4659,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>167</v>
+        <v>354</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -4668,7 +4668,7 @@
         <v>0</v>
       </c>
       <c r="D170" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E170">
         <f t="shared" si="2"/>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>168</v>
+        <v>84</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -4686,7 +4686,7 @@
         <v>1</v>
       </c>
       <c r="D171" t="s">
-        <v>355</v>
+        <v>219</v>
       </c>
       <c r="E171">
         <f t="shared" si="2"/>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>169</v>
+        <v>85</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -4704,7 +4704,7 @@
         <v>1</v>
       </c>
       <c r="D172" t="s">
-        <v>356</v>
+        <v>220</v>
       </c>
       <c r="E172">
         <f t="shared" si="2"/>
@@ -4713,7 +4713,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -4722,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="D173" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E173">
         <f t="shared" si="2"/>
@@ -4731,7 +4731,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>171</v>
+        <v>356</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -4740,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="D174" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E174">
         <f t="shared" si="2"/>
@@ -4749,7 +4749,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>172</v>
+        <v>86</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -4758,7 +4758,7 @@
         <v>1</v>
       </c>
       <c r="D175" t="s">
-        <v>357</v>
+        <v>221</v>
       </c>
       <c r="E175">
         <f t="shared" si="2"/>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -4776,7 +4776,7 @@
         <v>1</v>
       </c>
       <c r="D176" t="s">
-        <v>358</v>
+        <v>222</v>
       </c>
       <c r="E176">
         <f t="shared" si="2"/>
@@ -4785,7 +4785,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>174</v>
+        <v>357</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -4794,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="D177" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E177">
         <f t="shared" si="2"/>
@@ -4803,7 +4803,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>175</v>
+        <v>358</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -4812,7 +4812,7 @@
         <v>0</v>
       </c>
       <c r="D178" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E178">
         <f t="shared" si="2"/>
@@ -4821,7 +4821,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="D179" t="s">
-        <v>359</v>
+        <v>223</v>
       </c>
       <c r="E179">
         <f t="shared" si="2"/>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>177</v>
+        <v>89</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -4848,7 +4848,7 @@
         <v>1</v>
       </c>
       <c r="D180" t="s">
-        <v>360</v>
+        <v>224</v>
       </c>
       <c r="E180">
         <f t="shared" si="2"/>
@@ -4857,7 +4857,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>178</v>
+        <v>359</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="D181" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E181">
         <f t="shared" si="2"/>
@@ -4875,7 +4875,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>179</v>
+        <v>360</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -4884,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="D182" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E182">
         <f t="shared" si="2"/>
@@ -4893,7 +4893,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -4902,7 +4902,7 @@
         <v>1</v>
       </c>
       <c r="D183" t="s">
-        <v>361</v>
+        <v>225</v>
       </c>
       <c r="E183">
         <f t="shared" si="2"/>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>181</v>
+        <v>91</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -4920,7 +4920,7 @@
         <v>1</v>
       </c>
       <c r="D184" t="s">
-        <v>362</v>
+        <v>226</v>
       </c>
       <c r="E184">
         <f t="shared" si="2"/>
@@ -4929,7 +4929,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>182</v>
+        <v>361</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -4938,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="D185" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E185">
         <f t="shared" si="2"/>
@@ -4947,7 +4947,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>183</v>
+        <v>362</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -4956,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="D186" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E186">
         <f t="shared" si="2"/>
@@ -4965,7 +4965,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -4974,7 +4974,7 @@
         <v>1</v>
       </c>
       <c r="D187" t="s">
-        <v>363</v>
+        <v>227</v>
       </c>
       <c r="E187">
         <f t="shared" si="2"/>
@@ -4983,7 +4983,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -4992,7 +4992,7 @@
         <v>1</v>
       </c>
       <c r="D188" t="s">
-        <v>364</v>
+        <v>228</v>
       </c>
       <c r="E188">
         <f t="shared" si="2"/>
@@ -5001,7 +5001,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>186</v>
+        <v>363</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -5010,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="D189" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E189">
         <f t="shared" si="2"/>
@@ -5019,7 +5019,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>187</v>
+        <v>364</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -5028,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="D190" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E190">
         <f t="shared" si="2"/>
@@ -5037,7 +5037,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>188</v>
+        <v>94</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -5046,7 +5046,7 @@
         <v>1</v>
       </c>
       <c r="D191" t="s">
-        <v>365</v>
+        <v>229</v>
       </c>
       <c r="E191">
         <f t="shared" si="2"/>
@@ -5055,7 +5055,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -5064,7 +5064,7 @@
         <v>1</v>
       </c>
       <c r="D192" t="s">
-        <v>299</v>
+        <v>163</v>
       </c>
       <c r="E192">
         <f t="shared" si="2"/>
@@ -5073,7 +5073,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>190</v>
+        <v>365</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="D193" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E193">
         <f t="shared" si="2"/>
@@ -5091,7 +5091,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>191</v>
+        <v>366</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -5100,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="D194" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E194">
         <f t="shared" si="2"/>
@@ -5109,7 +5109,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -5118,7 +5118,7 @@
         <v>1</v>
       </c>
       <c r="D195" t="s">
-        <v>366</v>
+        <v>230</v>
       </c>
       <c r="E195">
         <f t="shared" si="2"/>
@@ -5127,7 +5127,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>193</v>
+        <v>97</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -5136,7 +5136,7 @@
         <v>1</v>
       </c>
       <c r="D196" t="s">
-        <v>367</v>
+        <v>231</v>
       </c>
       <c r="E196">
         <f t="shared" ref="E196:E259" si="3">IF(D196 = "nan",0,1)</f>
@@ -5145,7 +5145,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>194</v>
+        <v>367</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="D197" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E197">
         <f t="shared" si="3"/>
@@ -5163,7 +5163,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>195</v>
+        <v>368</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -5172,7 +5172,7 @@
         <v>0</v>
       </c>
       <c r="D198" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E198">
         <f t="shared" si="3"/>
@@ -5181,7 +5181,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>196</v>
+        <v>98</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -5190,7 +5190,7 @@
         <v>1</v>
       </c>
       <c r="D199" t="s">
-        <v>368</v>
+        <v>232</v>
       </c>
       <c r="E199">
         <f t="shared" si="3"/>
@@ -5199,7 +5199,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>197</v>
+        <v>99</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -5208,7 +5208,7 @@
         <v>1</v>
       </c>
       <c r="D200" t="s">
-        <v>369</v>
+        <v>233</v>
       </c>
       <c r="E200">
         <f t="shared" si="3"/>
@@ -5217,7 +5217,7 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>198</v>
+        <v>369</v>
       </c>
       <c r="B201">
         <v>0</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="D201" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E201">
         <f t="shared" si="3"/>
@@ -5235,7 +5235,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>199</v>
+        <v>370</v>
       </c>
       <c r="B202">
         <v>0</v>
@@ -5244,7 +5244,7 @@
         <v>0</v>
       </c>
       <c r="D202" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E202">
         <f t="shared" si="3"/>
@@ -5253,7 +5253,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -5262,7 +5262,7 @@
         <v>1</v>
       </c>
       <c r="D203" t="s">
-        <v>370</v>
+        <v>234</v>
       </c>
       <c r="E203">
         <f t="shared" si="3"/>
@@ -5271,7 +5271,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -5280,7 +5280,7 @@
         <v>1</v>
       </c>
       <c r="D204" t="s">
-        <v>371</v>
+        <v>235</v>
       </c>
       <c r="E204">
         <f t="shared" si="3"/>
@@ -5289,7 +5289,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>202</v>
+        <v>371</v>
       </c>
       <c r="B205">
         <v>0</v>
@@ -5298,7 +5298,7 @@
         <v>0</v>
       </c>
       <c r="D205" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E205">
         <f t="shared" si="3"/>
@@ -5307,7 +5307,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>203</v>
+        <v>372</v>
       </c>
       <c r="B206">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>0</v>
       </c>
       <c r="D206" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E206">
         <f t="shared" si="3"/>
@@ -5325,7 +5325,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>204</v>
+        <v>102</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="D207" t="s">
-        <v>372</v>
+        <v>236</v>
       </c>
       <c r="E207">
         <f t="shared" si="3"/>
@@ -5343,7 +5343,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>205</v>
+        <v>103</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -5352,7 +5352,7 @@
         <v>1</v>
       </c>
       <c r="D208" t="s">
-        <v>373</v>
+        <v>237</v>
       </c>
       <c r="E208">
         <f t="shared" si="3"/>
@@ -5361,7 +5361,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>206</v>
+        <v>373</v>
       </c>
       <c r="B209">
         <v>0</v>
@@ -5370,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="D209" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E209">
         <f t="shared" si="3"/>
@@ -5379,7 +5379,7 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>207</v>
+        <v>374</v>
       </c>
       <c r="B210">
         <v>0</v>
@@ -5388,7 +5388,7 @@
         <v>0</v>
       </c>
       <c r="D210" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E210">
         <f t="shared" si="3"/>
@@ -5397,7 +5397,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -5406,7 +5406,7 @@
         <v>1</v>
       </c>
       <c r="D211" t="s">
-        <v>374</v>
+        <v>238</v>
       </c>
       <c r="E211">
         <f t="shared" si="3"/>
@@ -5415,7 +5415,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -5424,7 +5424,7 @@
         <v>1</v>
       </c>
       <c r="D212" t="s">
-        <v>375</v>
+        <v>239</v>
       </c>
       <c r="E212">
         <f t="shared" si="3"/>
@@ -5433,7 +5433,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>210</v>
+        <v>375</v>
       </c>
       <c r="B213">
         <v>0</v>
@@ -5442,7 +5442,7 @@
         <v>0</v>
       </c>
       <c r="D213" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E213">
         <f t="shared" si="3"/>
@@ -5451,7 +5451,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>211</v>
+        <v>376</v>
       </c>
       <c r="B214">
         <v>0</v>
@@ -5460,7 +5460,7 @@
         <v>0</v>
       </c>
       <c r="D214" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E214">
         <f t="shared" si="3"/>
@@ -5469,7 +5469,7 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>212</v>
+        <v>106</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -5478,7 +5478,7 @@
         <v>1</v>
       </c>
       <c r="D215" t="s">
-        <v>376</v>
+        <v>240</v>
       </c>
       <c r="E215">
         <f t="shared" si="3"/>
@@ -5487,7 +5487,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>213</v>
+        <v>107</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -5496,7 +5496,7 @@
         <v>1</v>
       </c>
       <c r="D216" t="s">
-        <v>367</v>
+        <v>231</v>
       </c>
       <c r="E216">
         <f t="shared" si="3"/>
@@ -5505,7 +5505,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>214</v>
+        <v>377</v>
       </c>
       <c r="B217">
         <v>0</v>
@@ -5514,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="D217" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E217">
         <f t="shared" si="3"/>
@@ -5523,7 +5523,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>215</v>
+        <v>378</v>
       </c>
       <c r="B218">
         <v>0</v>
@@ -5532,7 +5532,7 @@
         <v>0</v>
       </c>
       <c r="D218" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E218">
         <f t="shared" si="3"/>
@@ -5541,7 +5541,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -5550,7 +5550,7 @@
         <v>1</v>
       </c>
       <c r="D219" t="s">
-        <v>377</v>
+        <v>241</v>
       </c>
       <c r="E219">
         <f t="shared" si="3"/>
@@ -5559,7 +5559,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>217</v>
+        <v>109</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -5568,7 +5568,7 @@
         <v>1</v>
       </c>
       <c r="D220" t="s">
-        <v>378</v>
+        <v>242</v>
       </c>
       <c r="E220">
         <f t="shared" si="3"/>
@@ -5577,7 +5577,7 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>218</v>
+        <v>379</v>
       </c>
       <c r="B221">
         <v>0</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="D221" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E221">
         <f t="shared" si="3"/>
@@ -5595,7 +5595,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>219</v>
+        <v>380</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -5604,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="D222" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E222">
         <f t="shared" si="3"/>
@@ -5613,7 +5613,7 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -5622,7 +5622,7 @@
         <v>1</v>
       </c>
       <c r="D223" t="s">
-        <v>379</v>
+        <v>243</v>
       </c>
       <c r="E223">
         <f t="shared" si="3"/>
@@ -5631,7 +5631,7 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>221</v>
+        <v>111</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -5640,7 +5640,7 @@
         <v>1</v>
       </c>
       <c r="D224" t="s">
-        <v>380</v>
+        <v>244</v>
       </c>
       <c r="E224">
         <f t="shared" si="3"/>
@@ -5649,7 +5649,7 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>222</v>
+        <v>381</v>
       </c>
       <c r="B225">
         <v>0</v>
@@ -5658,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="D225" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E225">
         <f t="shared" si="3"/>
@@ -5667,7 +5667,7 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>223</v>
+        <v>382</v>
       </c>
       <c r="B226">
         <v>0</v>
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="D226" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E226">
         <f t="shared" si="3"/>
@@ -5685,7 +5685,7 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -5694,7 +5694,7 @@
         <v>1</v>
       </c>
       <c r="D227" t="s">
-        <v>381</v>
+        <v>245</v>
       </c>
       <c r="E227">
         <f t="shared" si="3"/>
@@ -5703,7 +5703,7 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>225</v>
+        <v>113</v>
       </c>
       <c r="B228">
         <v>1</v>
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="D228" t="s">
-        <v>299</v>
+        <v>163</v>
       </c>
       <c r="E228">
         <f t="shared" si="3"/>
@@ -5721,7 +5721,7 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>226</v>
+        <v>383</v>
       </c>
       <c r="B229">
         <v>0</v>
@@ -5730,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="D229" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E229">
         <f t="shared" si="3"/>
@@ -5739,7 +5739,7 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>227</v>
+        <v>384</v>
       </c>
       <c r="B230">
         <v>0</v>
@@ -5748,7 +5748,7 @@
         <v>0</v>
       </c>
       <c r="D230" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E230">
         <f t="shared" si="3"/>
@@ -5757,7 +5757,7 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>228</v>
+        <v>114</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -5766,7 +5766,7 @@
         <v>1</v>
       </c>
       <c r="D231" t="s">
-        <v>382</v>
+        <v>246</v>
       </c>
       <c r="E231">
         <f t="shared" si="3"/>
@@ -5775,7 +5775,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>229</v>
+        <v>115</v>
       </c>
       <c r="B232">
         <v>1</v>
@@ -5784,7 +5784,7 @@
         <v>1</v>
       </c>
       <c r="D232" t="s">
-        <v>383</v>
+        <v>247</v>
       </c>
       <c r="E232">
         <f t="shared" si="3"/>
@@ -5793,7 +5793,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>230</v>
+        <v>385</v>
       </c>
       <c r="B233">
         <v>0</v>
@@ -5802,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="D233" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E233">
         <f t="shared" si="3"/>
@@ -5811,7 +5811,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>231</v>
+        <v>386</v>
       </c>
       <c r="B234">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="D234" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E234">
         <f t="shared" si="3"/>
@@ -5829,7 +5829,7 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>232</v>
+        <v>116</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="D235" t="s">
-        <v>384</v>
+        <v>248</v>
       </c>
       <c r="E235">
         <f t="shared" si="3"/>
@@ -5847,7 +5847,7 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -5856,7 +5856,7 @@
         <v>1</v>
       </c>
       <c r="D236" t="s">
-        <v>385</v>
+        <v>249</v>
       </c>
       <c r="E236">
         <f t="shared" si="3"/>
@@ -5865,7 +5865,7 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>234</v>
+        <v>387</v>
       </c>
       <c r="B237">
         <v>0</v>
@@ -5874,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="D237" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E237">
         <f t="shared" si="3"/>
@@ -5883,7 +5883,7 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>235</v>
+        <v>388</v>
       </c>
       <c r="B238">
         <v>0</v>
@@ -5892,7 +5892,7 @@
         <v>0</v>
       </c>
       <c r="D238" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E238">
         <f t="shared" si="3"/>
@@ -5901,7 +5901,7 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>236</v>
+        <v>118</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -5910,7 +5910,7 @@
         <v>1</v>
       </c>
       <c r="D239" t="s">
-        <v>386</v>
+        <v>250</v>
       </c>
       <c r="E239">
         <f t="shared" si="3"/>
@@ -5919,7 +5919,7 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>237</v>
+        <v>119</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -5928,7 +5928,7 @@
         <v>1</v>
       </c>
       <c r="D240" t="s">
-        <v>387</v>
+        <v>251</v>
       </c>
       <c r="E240">
         <f t="shared" si="3"/>
@@ -5937,7 +5937,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>238</v>
+        <v>389</v>
       </c>
       <c r="B241">
         <v>0</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="D241" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E241">
         <f t="shared" si="3"/>
@@ -5955,7 +5955,7 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>239</v>
+        <v>390</v>
       </c>
       <c r="B242">
         <v>0</v>
@@ -5964,7 +5964,7 @@
         <v>0</v>
       </c>
       <c r="D242" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E242">
         <f t="shared" si="3"/>
@@ -5973,7 +5973,7 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="B243">
         <v>1</v>
@@ -5982,7 +5982,7 @@
         <v>1</v>
       </c>
       <c r="D243" t="s">
-        <v>388</v>
+        <v>252</v>
       </c>
       <c r="E243">
         <f t="shared" si="3"/>
@@ -5991,7 +5991,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>241</v>
+        <v>121</v>
       </c>
       <c r="B244">
         <v>1</v>
@@ -6000,7 +6000,7 @@
         <v>1</v>
       </c>
       <c r="D244" t="s">
-        <v>299</v>
+        <v>163</v>
       </c>
       <c r="E244">
         <f t="shared" si="3"/>
@@ -6009,7 +6009,7 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>242</v>
+        <v>391</v>
       </c>
       <c r="B245">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="D245" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E245">
         <f t="shared" si="3"/>
@@ -6027,7 +6027,7 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>243</v>
+        <v>392</v>
       </c>
       <c r="B246">
         <v>0</v>
@@ -6036,7 +6036,7 @@
         <v>0</v>
       </c>
       <c r="D246" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E246">
         <f t="shared" si="3"/>
@@ -6045,7 +6045,7 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>244</v>
+        <v>122</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -6054,7 +6054,7 @@
         <v>1</v>
       </c>
       <c r="D247" t="s">
-        <v>389</v>
+        <v>253</v>
       </c>
       <c r="E247">
         <f t="shared" si="3"/>
@@ -6063,7 +6063,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>245</v>
+        <v>123</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -6072,7 +6072,7 @@
         <v>1</v>
       </c>
       <c r="D248" t="s">
-        <v>390</v>
+        <v>254</v>
       </c>
       <c r="E248">
         <f t="shared" si="3"/>
@@ -6081,7 +6081,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>246</v>
+        <v>393</v>
       </c>
       <c r="B249">
         <v>0</v>
@@ -6090,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="D249" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E249">
         <f t="shared" si="3"/>
@@ -6099,7 +6099,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>247</v>
+        <v>394</v>
       </c>
       <c r="B250">
         <v>0</v>
@@ -6108,7 +6108,7 @@
         <v>0</v>
       </c>
       <c r="D250" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E250">
         <f t="shared" si="3"/>
@@ -6117,7 +6117,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>248</v>
+        <v>124</v>
       </c>
       <c r="B251">
         <v>1</v>
@@ -6126,7 +6126,7 @@
         <v>1</v>
       </c>
       <c r="D251" t="s">
-        <v>391</v>
+        <v>255</v>
       </c>
       <c r="E251">
         <f t="shared" si="3"/>
@@ -6135,7 +6135,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>249</v>
+        <v>125</v>
       </c>
       <c r="B252">
         <v>1</v>
@@ -6144,7 +6144,7 @@
         <v>1</v>
       </c>
       <c r="D252" t="s">
-        <v>392</v>
+        <v>256</v>
       </c>
       <c r="E252">
         <f t="shared" si="3"/>
@@ -6153,7 +6153,7 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>250</v>
+        <v>395</v>
       </c>
       <c r="B253">
         <v>0</v>
@@ -6162,7 +6162,7 @@
         <v>0</v>
       </c>
       <c r="D253" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E253">
         <f t="shared" si="3"/>
@@ -6171,7 +6171,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>251</v>
+        <v>396</v>
       </c>
       <c r="B254">
         <v>0</v>
@@ -6180,7 +6180,7 @@
         <v>0</v>
       </c>
       <c r="D254" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E254">
         <f t="shared" si="3"/>
@@ -6189,7 +6189,7 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>252</v>
+        <v>126</v>
       </c>
       <c r="B255">
         <v>1</v>
@@ -6198,7 +6198,7 @@
         <v>1</v>
       </c>
       <c r="D255" t="s">
-        <v>393</v>
+        <v>257</v>
       </c>
       <c r="E255">
         <f t="shared" si="3"/>
@@ -6207,7 +6207,7 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>253</v>
+        <v>127</v>
       </c>
       <c r="B256">
         <v>1</v>
@@ -6216,7 +6216,7 @@
         <v>1</v>
       </c>
       <c r="D256" t="s">
-        <v>299</v>
+        <v>163</v>
       </c>
       <c r="E256">
         <f t="shared" si="3"/>
@@ -6225,7 +6225,7 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>254</v>
+        <v>397</v>
       </c>
       <c r="B257">
         <v>0</v>
@@ -6234,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="D257" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E257">
         <f t="shared" si="3"/>
@@ -6243,7 +6243,7 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>255</v>
+        <v>398</v>
       </c>
       <c r="B258">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="D258" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E258">
         <f t="shared" si="3"/>
@@ -6261,7 +6261,7 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="B259">
         <v>1</v>
@@ -6270,7 +6270,7 @@
         <v>1</v>
       </c>
       <c r="D259" t="s">
-        <v>394</v>
+        <v>258</v>
       </c>
       <c r="E259">
         <f t="shared" si="3"/>
@@ -6279,7 +6279,7 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>257</v>
+        <v>129</v>
       </c>
       <c r="B260">
         <v>1</v>
@@ -6288,7 +6288,7 @@
         <v>1</v>
       </c>
       <c r="D260" t="s">
-        <v>395</v>
+        <v>259</v>
       </c>
       <c r="E260">
         <f t="shared" ref="E260:E274" si="4">IF(D260 = "nan",0,1)</f>
@@ -6297,7 +6297,7 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>258</v>
+        <v>399</v>
       </c>
       <c r="B261">
         <v>0</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="D261" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E261">
         <f t="shared" si="4"/>
@@ -6315,7 +6315,7 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>259</v>
+        <v>400</v>
       </c>
       <c r="B262">
         <v>0</v>
@@ -6324,7 +6324,7 @@
         <v>0</v>
       </c>
       <c r="D262" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E262">
         <f t="shared" si="4"/>
@@ -6333,16 +6333,16 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
+        <v>130</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+      <c r="D263" t="s">
         <v>260</v>
-      </c>
-      <c r="B263">
-        <v>1</v>
-      </c>
-      <c r="C263">
-        <v>1</v>
-      </c>
-      <c r="D263" t="s">
-        <v>396</v>
       </c>
       <c r="E263">
         <f t="shared" si="4"/>
@@ -6351,16 +6351,16 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
+        <v>131</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+      <c r="D264" t="s">
         <v>261</v>
-      </c>
-      <c r="B264">
-        <v>1</v>
-      </c>
-      <c r="C264">
-        <v>1</v>
-      </c>
-      <c r="D264" t="s">
-        <v>397</v>
       </c>
       <c r="E264">
         <f t="shared" si="4"/>
@@ -6369,7 +6369,7 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>262</v>
+        <v>401</v>
       </c>
       <c r="B265">
         <v>0</v>
@@ -6378,7 +6378,7 @@
         <v>0</v>
       </c>
       <c r="D265" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E265">
         <f t="shared" si="4"/>
@@ -6387,7 +6387,7 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>263</v>
+        <v>402</v>
       </c>
       <c r="B266">
         <v>0</v>
@@ -6396,7 +6396,7 @@
         <v>0</v>
       </c>
       <c r="D266" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E266">
         <f t="shared" si="4"/>
@@ -6405,7 +6405,7 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>264</v>
+        <v>132</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -6414,7 +6414,7 @@
         <v>1</v>
       </c>
       <c r="D267" t="s">
-        <v>398</v>
+        <v>262</v>
       </c>
       <c r="E267">
         <f t="shared" si="4"/>
@@ -6423,7 +6423,7 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>265</v>
+        <v>133</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -6432,7 +6432,7 @@
         <v>1</v>
       </c>
       <c r="D268" t="s">
-        <v>399</v>
+        <v>263</v>
       </c>
       <c r="E268">
         <f t="shared" si="4"/>
@@ -6441,7 +6441,7 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>266</v>
+        <v>403</v>
       </c>
       <c r="B269">
         <v>0</v>
@@ -6450,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="D269" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E269">
         <f t="shared" si="4"/>
@@ -6459,7 +6459,7 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>267</v>
+        <v>404</v>
       </c>
       <c r="B270">
         <v>0</v>
@@ -6468,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="D270" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E270">
         <f t="shared" si="4"/>
@@ -6477,7 +6477,7 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>268</v>
+        <v>134</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -6486,7 +6486,7 @@
         <v>1</v>
       </c>
       <c r="D271" t="s">
-        <v>400</v>
+        <v>264</v>
       </c>
       <c r="E271">
         <f t="shared" si="4"/>
@@ -6495,7 +6495,7 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>269</v>
+        <v>135</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -6504,7 +6504,7 @@
         <v>1</v>
       </c>
       <c r="D272" t="s">
-        <v>401</v>
+        <v>265</v>
       </c>
       <c r="E272">
         <f t="shared" si="4"/>
@@ -6513,7 +6513,7 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>270</v>
+        <v>405</v>
       </c>
       <c r="B273">
         <v>0</v>
@@ -6522,7 +6522,7 @@
         <v>0</v>
       </c>
       <c r="D273" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E273">
         <f t="shared" si="4"/>
@@ -6531,7 +6531,7 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>271</v>
+        <v>406</v>
       </c>
       <c r="B274">
         <v>0</v>
@@ -6540,7 +6540,7 @@
         <v>0</v>
       </c>
       <c r="D274" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="E274">
         <f t="shared" si="4"/>
@@ -6563,7 +6563,7 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>404</v>
+        <v>268</v>
       </c>
       <c r="B277" s="1">
         <f>C275/B275</f>
@@ -6572,7 +6572,7 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>405</v>
+        <v>269</v>
       </c>
       <c r="B278" s="1">
         <f>C275/E275</f>

--- a/.idea/files/Evaluation/Round2/EvaluationDataset-CEA.xlsx
+++ b/.idea/files/Evaluation/Round2/EvaluationDataset-CEA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANTHONY\IdeaProjects\STI_Thesis\.idea\files\Evaluation\Round2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F92218-6D5B-4B54-965D-48A08AF3A640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07113401-F721-489A-8F0D-353B5CC2E436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="1665" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="408">
   <si>
     <t>ResultatDataset1 "0" "1" URI: http://dbpedia.org/resource/Westminster_College_(Missouri)</t>
   </si>
@@ -1253,6 +1253,9 @@
   </si>
   <si>
     <t>ResultatDataset1 "3" "68" URI: 6254</t>
+  </si>
+  <si>
+    <t>F1_Score</t>
   </si>
 </sst>
 </file>
@@ -1614,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E278"/>
+  <dimension ref="A1:E279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A259" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D279" sqref="D279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6579,6 +6582,15 @@
         <v>1</v>
       </c>
     </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>407</v>
+      </c>
+      <c r="B279" s="1">
+        <f>(2*B277*B278)/(B277+B278)</f>
+        <v>0.9850746268656716</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/.idea/files/Evaluation/Round2/EvaluationDataset-CEA.xlsx
+++ b/.idea/files/Evaluation/Round2/EvaluationDataset-CEA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANTHONY\IdeaProjects\STI_Thesis\.idea\files\Evaluation\Round2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07113401-F721-489A-8F0D-353B5CC2E436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE40B4A-2E24-447E-9E38-89EB12EF8C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="1665" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1620,7 +1620,7 @@
   <dimension ref="A1:E279"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A259" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D279" sqref="D279"/>
+      <selection activeCell="B279" sqref="B279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
